--- a/list1.xlsx
+++ b/list1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Users/yufeng/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/Users/yufeng/Github/didayu/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,6 +795,116 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H10"/>
   <phoneticPr fontId="1" type="noConversion"/>
